--- a/summary.xlsx
+++ b/summary.xlsx
@@ -475,7 +475,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>325</v>
